--- a/Datos9barras.xlsx
+++ b/Datos9barras.xlsx
@@ -5,19 +5,23 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Google Drive\Conversión y Transporte de Energía\CT4211 - Potencia III\SepDic2017 - Prof. Bermudez\Programas\Estabilidad Transitoria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Google Drive\Conversión y Transporte de Energía\CT4211 - Potencia III\SepDic2017 - Prof. Bermudez\Programas\Estabilidad-Transitoria-PIII\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5775" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5775" tabRatio="883" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="LINEDATA" sheetId="1" r:id="rId1"/>
-    <sheet name="BUSDATA" sheetId="2" r:id="rId2"/>
-    <sheet name="SHUNTDATA" sheetId="3" r:id="rId3"/>
-    <sheet name="GENDATA" sheetId="4" r:id="rId4"/>
+    <sheet name="NODOS" sheetId="2" r:id="rId1"/>
+    <sheet name="NODOS_FALLA" sheetId="9" r:id="rId2"/>
+    <sheet name="RAMAS PRE" sheetId="1" r:id="rId3"/>
+    <sheet name="RAMAS FALLA" sheetId="5" r:id="rId4"/>
+    <sheet name="RAMAS POST" sheetId="6" r:id="rId5"/>
+    <sheet name="GENERADORES" sheetId="4" r:id="rId6"/>
+    <sheet name="FALLAS" sheetId="8" r:id="rId7"/>
+    <sheet name="INTEGRACION" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
   <si>
     <t>BARRA PARTIDA</t>
   </si>
@@ -104,26 +108,107 @@
     <t>TAP</t>
   </si>
   <si>
-    <t>RESISTENCIA ITNERNA</t>
-  </si>
-  <si>
-    <t>REACTANCIA TRANSITORIA</t>
-  </si>
-  <si>
-    <t>TENSION INTERNA</t>
-  </si>
-  <si>
-    <t>ANGULO d0</t>
-  </si>
-  <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>Frecuencia f (Hz)</t>
+  </si>
+  <si>
+    <t>Tiempo perturbacion (ciclos)</t>
+  </si>
+  <si>
+    <t>Tiempo despeje (ciclos)</t>
+  </si>
+  <si>
+    <t>Tiempo total (ciclos)</t>
+  </si>
+  <si>
+    <t>Step dt (ciclos)</t>
+  </si>
+  <si>
+    <t>Falla</t>
+  </si>
+  <si>
+    <t>Zfalla</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>FASES</t>
+  </si>
+  <si>
+    <t>BARRA i</t>
+  </si>
+  <si>
+    <t>BARRA j</t>
+  </si>
+  <si>
+    <t>Ra</t>
+  </si>
+  <si>
+    <t>Xd</t>
+  </si>
+  <si>
+    <t>Xdp</t>
+  </si>
+  <si>
+    <t>Xdpp</t>
+  </si>
+  <si>
+    <t>Xq</t>
+  </si>
+  <si>
+    <t>Xqp</t>
+  </si>
+  <si>
+    <t>Xqpp</t>
+  </si>
+  <si>
+    <t>tdop</t>
+  </si>
+  <si>
+    <t>tqop</t>
+  </si>
+  <si>
+    <t>tdopp</t>
+  </si>
+  <si>
+    <t>tqopp</t>
+  </si>
+  <si>
+    <t>Kv</t>
+  </si>
+  <si>
+    <t>Ki</t>
+  </si>
+  <si>
+    <t>Kt</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Tv</t>
+  </si>
+  <si>
+    <t>Tt</t>
+  </si>
+  <si>
+    <t>Campo/Jaula</t>
+  </si>
+  <si>
+    <t>Factor Participacion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,8 +235,29 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,6 +285,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -286,7 +410,35 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,10 +719,744 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="30.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.04</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="17">
+        <v>0</v>
+      </c>
+      <c r="K2" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1.63</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="17">
+        <v>0</v>
+      </c>
+      <c r="K3" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="17">
+        <v>0</v>
+      </c>
+      <c r="K4" s="18">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="17">
+        <v>0</v>
+      </c>
+      <c r="K5" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1.25</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="17">
+        <v>0</v>
+      </c>
+      <c r="K6" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="17">
+        <v>0</v>
+      </c>
+      <c r="K7" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="17">
+        <v>0</v>
+      </c>
+      <c r="K8" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="17">
+        <v>0</v>
+      </c>
+      <c r="K9" s="18">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="17">
+        <v>0</v>
+      </c>
+      <c r="K10" s="18">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.04</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="17">
+        <v>0</v>
+      </c>
+      <c r="K2" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1.63</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="17">
+        <v>0</v>
+      </c>
+      <c r="K3" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="17">
+        <v>0</v>
+      </c>
+      <c r="K4" s="18">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="17">
+        <v>0</v>
+      </c>
+      <c r="K5" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1.25</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="17">
+        <v>0</v>
+      </c>
+      <c r="K6" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="17">
+        <v>0</v>
+      </c>
+      <c r="K7" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="17">
+        <v>0</v>
+      </c>
+      <c r="K8" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="17">
+        <v>0</v>
+      </c>
+      <c r="K9" s="18">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="17">
+        <v>0</v>
+      </c>
+      <c r="K10" s="18">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,7 +1502,7 @@
         <v>5.7599999999999998E-2</v>
       </c>
       <c r="F2" s="4">
-        <f>2*G2</f>
+        <f t="shared" ref="F2:F10" si="0">2*G2</f>
         <v>0</v>
       </c>
       <c r="G2" s="4">
@@ -643,7 +1529,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="F3" s="4">
-        <f t="shared" ref="F3:F10" si="0">2*G3</f>
+        <f t="shared" si="0"/>
         <v>0.17599999999999999</v>
       </c>
       <c r="G3" s="4">
@@ -843,428 +1729,997 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1.04</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="10">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>1.63</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0</v>
-      </c>
-      <c r="F5" s="11">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11">
-        <v>0</v>
-      </c>
-      <c r="H5" s="11">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="11">
-        <v>1.25</v>
-      </c>
-      <c r="F6" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0</v>
-      </c>
-      <c r="H6" s="11">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="11">
-        <v>0</v>
-      </c>
-      <c r="F8" s="11">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0</v>
-      </c>
-      <c r="H8" s="11">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="11">
-        <v>1</v>
-      </c>
-      <c r="F9" s="11">
-        <v>0.35</v>
-      </c>
-      <c r="G9" s="11">
-        <v>0</v>
-      </c>
-      <c r="H9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0</v>
-      </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="F2" s="4">
+        <f>2*G2</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="E3" s="4">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F10" si="0">2*G3</f>
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="G3" s="4">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E4" s="6">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.158</v>
+      </c>
+      <c r="G4" s="6">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.161</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.153</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="G7" s="4">
+        <v>7.4499999999999997E-2</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.1008</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.1045</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="F2" s="4">
+        <f>2*G2</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="E3" s="4">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F10" si="0">2*G3</f>
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="G3" s="4">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E4" s="6">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.158</v>
+      </c>
+      <c r="G4" s="6">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.161</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.153</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="G7" s="4">
+        <v>7.4499999999999997E-2</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.1008</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.1045</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T5"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="20" max="20" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="N1" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="13">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13">
+      <c r="B2" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="D2" s="5">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="F2" s="5">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="G2" s="5">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="I2" s="5">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="J2" s="28">
+        <v>10000000000</v>
+      </c>
+      <c r="K2" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="M2" s="5">
+        <v>11.818</v>
+      </c>
+      <c r="N2" s="5">
+        <v>1</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="P2" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="27">
+        <v>2.4</v>
+      </c>
+      <c r="R2" s="28">
         <v>0.1</v>
       </c>
-      <c r="D2" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E2" s="13">
-        <v>0</v>
-      </c>
-      <c r="F2" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="S2" s="28">
+        <v>2</v>
+      </c>
+      <c r="T2" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="13">
-        <v>0</v>
-      </c>
-      <c r="C3" s="13">
+      <c r="B3" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="D3" s="5">
         <v>0.12</v>
       </c>
-      <c r="D3" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E3" s="13">
-        <v>0</v>
-      </c>
-      <c r="F3" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="5">
+        <v>0.104</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.104</v>
+      </c>
+      <c r="I3" s="5">
+        <v>5.9829999999999997</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="K3" s="5">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="L3" s="5">
+        <v>9.4500000000000001E-2</v>
+      </c>
+      <c r="M3" s="5">
+        <v>3.3980000000000001</v>
+      </c>
+      <c r="N3" s="5">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="27">
+        <v>2.4</v>
+      </c>
+      <c r="R3" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="S3" s="28">
+        <v>2</v>
+      </c>
+      <c r="T3" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="13">
-        <v>0</v>
-      </c>
-      <c r="C4" s="13">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D4" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E4" s="13">
-        <v>0</v>
-      </c>
-      <c r="F4" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="14"/>
+      <c r="B4" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1.3129999999999999</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.156</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.258</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.156</v>
+      </c>
+      <c r="I4" s="5">
+        <v>5.8869999999999996</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="K4" s="5">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="L4" s="5">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="M4" s="5">
+        <v>1.51</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="27">
+        <v>2.4</v>
+      </c>
+      <c r="R4" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="S4" s="28">
+        <v>2</v>
+      </c>
+      <c r="T4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C5" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="21">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21">
+        <v>3</v>
+      </c>
+      <c r="C2" s="22">
+        <v>7</v>
+      </c>
+      <c r="D2" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="30">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Datos9barras.xlsx
+++ b/Datos9barras.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Google Drive\Conversión y Transporte de Energía\CT4211 - Potencia III\SepDic2017 - Prof. Bermudez\Programas\Estabilidad-Transitoria-PIII\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo Montilva\Google Drive\Conversión y Transporte de Energía\CT4211 - Potencia III\SepDic2017 - Prof. Bermudez\Programas\Estabilidad-Transitoria-PIII\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5775" tabRatio="883" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5775" tabRatio="883" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="NODOS" sheetId="2" r:id="rId1"/>
@@ -1456,7 +1456,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1730,6 +1730,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2302,8 +2303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2419,19 +2420,20 @@
         <v>1</v>
       </c>
       <c r="O2" s="5">
-        <v>0.26</v>
+        <v>0.35</v>
       </c>
       <c r="P2" s="5">
         <v>1</v>
       </c>
       <c r="Q2" s="27">
-        <v>2.4</v>
+        <f>0.9696</f>
+        <v>0.96960000000000002</v>
       </c>
       <c r="R2" s="28">
         <v>0.1</v>
       </c>
-      <c r="S2" s="28">
-        <v>2</v>
+      <c r="S2" s="5">
+        <v>0.9</v>
       </c>
       <c r="T2" s="5">
         <v>2</v>
@@ -2487,13 +2489,14 @@
         <v>1</v>
       </c>
       <c r="Q3" s="27">
-        <v>2.4</v>
+        <f>1.25</f>
+        <v>1.25</v>
       </c>
       <c r="R3" s="28">
         <v>0.1</v>
       </c>
-      <c r="S3" s="28">
-        <v>2</v>
+      <c r="S3" s="5">
+        <v>0.9</v>
       </c>
       <c r="T3" s="5">
         <v>2</v>
@@ -2549,13 +2552,14 @@
         <v>1</v>
       </c>
       <c r="Q4" s="27">
-        <v>2.4</v>
+        <f>1.875</f>
+        <v>1.875</v>
       </c>
       <c r="R4" s="28">
         <v>0.1</v>
       </c>
-      <c r="S4" s="28">
-        <v>2</v>
+      <c r="S4" s="5">
+        <v>0.9</v>
       </c>
       <c r="T4" s="5">
         <v>2</v>
@@ -2574,8 +2578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2665,7 +2669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2703,7 +2707,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="30">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
